--- a/data/pca/factorExposure/factorExposure_2017-03-17.xlsx
+++ b/data/pca/factorExposure/factorExposure_2017-03-17.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="109">
   <si>
     <t>factor1</t>
   </si>
@@ -23,6 +23,15 @@
   </si>
   <si>
     <t>factor3</t>
+  </si>
+  <si>
+    <t>factor4</t>
+  </si>
+  <si>
+    <t>factor5</t>
+  </si>
+  <si>
+    <t>factor6</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -689,13 +698,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D104"/>
+  <dimension ref="A1:G104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -705,52 +714,88 @@
       <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
       <c r="A2" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B2">
-        <v>-0.01680017370178498</v>
+        <v>0.01073165022969718</v>
       </c>
       <c r="C2">
-        <v>0.0173367773947576</v>
+        <v>-0.04203847614044912</v>
       </c>
       <c r="D2">
-        <v>-0.02717173482069547</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+        <v>-0.02995672963258219</v>
+      </c>
+      <c r="E2">
+        <v>0.03952824307557373</v>
+      </c>
+      <c r="F2">
+        <v>-0.0009131064389253191</v>
+      </c>
+      <c r="G2">
+        <v>0.1045197719749933</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
       <c r="A3" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="B3">
-        <v>-0.01881283110144355</v>
+        <v>0.03923035772622889</v>
       </c>
       <c r="C3">
-        <v>-0.0008132101386827354</v>
+        <v>-0.1002173327423378</v>
       </c>
       <c r="D3">
-        <v>-0.08833531237894128</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
+        <v>-0.01792986956708569</v>
+      </c>
+      <c r="E3">
+        <v>0.1038622948836892</v>
+      </c>
+      <c r="F3">
+        <v>0.003923720976264169</v>
+      </c>
+      <c r="G3">
+        <v>0.1574225783160987</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
       <c r="A4" s="1" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="B4">
-        <v>-0.02849937440329646</v>
+        <v>0.054719402772595</v>
       </c>
       <c r="C4">
-        <v>0.007587215035000133</v>
+        <v>-0.06869527865890866</v>
       </c>
       <c r="D4">
-        <v>-0.07769546735349567</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
+        <v>-0.02483288515664532</v>
+      </c>
+      <c r="E4">
+        <v>0.0362288146444851</v>
+      </c>
+      <c r="F4">
+        <v>-0.008842257525720067</v>
+      </c>
+      <c r="G4">
+        <v>0.100142875264394</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -761,136 +806,226 @@
       <c r="D5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:4">
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
       <c r="A6" s="1" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B6">
-        <v>-0.01194418619731398</v>
+        <v>0.03570146494693695</v>
       </c>
       <c r="C6">
-        <v>0.009792358550886207</v>
+        <v>-0.05056561190968895</v>
       </c>
       <c r="D6">
-        <v>-0.07467396211813195</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
+        <v>-0.01733520844700367</v>
+      </c>
+      <c r="E6">
+        <v>0.04104551397202389</v>
+      </c>
+      <c r="F6">
+        <v>-0.003736434999657505</v>
+      </c>
+      <c r="G6">
+        <v>0.08765128834841784</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
       <c r="A7" s="1" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B7">
-        <v>-0.004161530495633828</v>
+        <v>0.02059431271426688</v>
       </c>
       <c r="C7">
-        <v>0.01070749773161829</v>
+        <v>-0.03944728146463199</v>
       </c>
       <c r="D7">
-        <v>-0.03569896986977163</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
+        <v>-0.01403094670345266</v>
+      </c>
+      <c r="E7">
+        <v>0.00864055301971514</v>
+      </c>
+      <c r="F7">
+        <v>0.005336154790884113</v>
+      </c>
+      <c r="G7">
+        <v>0.1233347372446534</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
       <c r="A8" s="1" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B8">
-        <v>0.003022835499844782</v>
+        <v>0.002194420507977657</v>
       </c>
       <c r="C8">
-        <v>0.002734341678006813</v>
+        <v>-0.02413088656043314</v>
       </c>
       <c r="D8">
-        <v>0.007295970539525273</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
+        <v>-0.00397987937283439</v>
+      </c>
+      <c r="E8">
+        <v>0.03159391827916513</v>
+      </c>
+      <c r="F8">
+        <v>-0.002054715078682118</v>
+      </c>
+      <c r="G8">
+        <v>0.07132865157312443</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
       <c r="A9" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="B9">
-        <v>-0.01408994822493144</v>
+        <v>0.03299421205578301</v>
       </c>
       <c r="C9">
-        <v>0.007341667945487783</v>
+        <v>-0.05021944712289888</v>
       </c>
       <c r="D9">
-        <v>-0.05664169473806605</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
+        <v>-0.01649133104281312</v>
+      </c>
+      <c r="E9">
+        <v>0.02489820397294571</v>
+      </c>
+      <c r="F9">
+        <v>-0.006656307494169905</v>
+      </c>
+      <c r="G9">
+        <v>0.09984448306714598</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
       <c r="A10" s="1" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B10">
-        <v>-0.1437828064500964</v>
+        <v>0.09958235290722232</v>
       </c>
       <c r="C10">
-        <v>-0.1052203184823179</v>
+        <v>0.1828700440214698</v>
       </c>
       <c r="D10">
-        <v>0.1103052133219015</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
+        <v>0.01547355532844997</v>
+      </c>
+      <c r="E10">
+        <v>0.01965264782100909</v>
+      </c>
+      <c r="F10">
+        <v>0.02202362823662906</v>
+      </c>
+      <c r="G10">
+        <v>0.05701714682610218</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
       <c r="A11" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B11">
-        <v>-0.001789425104606675</v>
+        <v>0.03379062350975547</v>
       </c>
       <c r="C11">
-        <v>-0.0002060995627591313</v>
+        <v>-0.05326635251463278</v>
       </c>
       <c r="D11">
-        <v>-0.05078930197993002</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
+        <v>-0.002640424242226425</v>
+      </c>
+      <c r="E11">
+        <v>0.01955014042054961</v>
+      </c>
+      <c r="F11">
+        <v>-0.01753340118952963</v>
+      </c>
+      <c r="G11">
+        <v>0.09042225993006082</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
       <c r="A12" s="1" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B12">
-        <v>-0.004628691472060718</v>
+        <v>0.03532978729477841</v>
       </c>
       <c r="C12">
-        <v>0.003755948640229702</v>
+        <v>-0.04806520746907179</v>
       </c>
       <c r="D12">
-        <v>-0.04311289444678734</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
+        <v>-0.006702485477909794</v>
+      </c>
+      <c r="E12">
+        <v>0.0101720765850728</v>
+      </c>
+      <c r="F12">
+        <v>-0.0007492052623523875</v>
+      </c>
+      <c r="G12">
+        <v>0.08218511861867506</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
       <c r="A13" s="1" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="B13">
-        <v>-0.01798150302689955</v>
+        <v>0.01494915683268214</v>
       </c>
       <c r="C13">
-        <v>0.01328315874534165</v>
+        <v>-0.04202772954745938</v>
       </c>
       <c r="D13">
-        <v>-0.0338055972466519</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
+        <v>-0.02676531283533558</v>
+      </c>
+      <c r="E13">
+        <v>0.040116987501663</v>
+      </c>
+      <c r="F13">
+        <v>0.001288903742262532</v>
+      </c>
+      <c r="G13">
+        <v>0.1411254603080721</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
       <c r="A14" s="1" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="B14">
-        <v>-0.00320485509280871</v>
+        <v>0.008131006923290251</v>
       </c>
       <c r="C14">
-        <v>0.005960193675493673</v>
+        <v>-0.02807490104030136</v>
       </c>
       <c r="D14">
-        <v>-0.01884119827062639</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
+        <v>-0.01026984252493777</v>
+      </c>
+      <c r="E14">
+        <v>0.009421025615411678</v>
+      </c>
+      <c r="F14">
+        <v>0.008296147224518036</v>
+      </c>
+      <c r="G14">
+        <v>0.107694489372456</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
       <c r="A15" s="1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B15">
         <v>0</v>
@@ -901,24 +1036,42 @@
       <c r="D15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:4">
+      <c r="E15">
+        <v>0</v>
+      </c>
+      <c r="F15">
+        <v>0</v>
+      </c>
+      <c r="G15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
       <c r="A16" s="1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B16">
-        <v>-0.005248327460558917</v>
+        <v>0.03249668433541273</v>
       </c>
       <c r="C16">
-        <v>-0.002768061645213418</v>
+        <v>-0.04638334136046358</v>
       </c>
       <c r="D16">
-        <v>-0.04014810102395698</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
+        <v>-0.002089996043375049</v>
+      </c>
+      <c r="E16">
+        <v>0.01597927697686815</v>
+      </c>
+      <c r="F16">
+        <v>0.001034721259785339</v>
+      </c>
+      <c r="G16">
+        <v>0.09238577893808694</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
       <c r="A17" s="1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -929,10 +1082,19 @@
       <c r="D17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:4">
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
       <c r="A18" s="1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -943,122 +1105,203 @@
       <c r="D18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:4">
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
       <c r="A19" s="1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B19">
-        <v>-0.010543550322574</v>
+        <v>0.02195154291894747</v>
       </c>
       <c r="C19">
-        <v>0.00833701296112656</v>
+        <v>-0.05115956102703776</v>
       </c>
       <c r="D19">
-        <v>-0.03752077064604568</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4">
+        <v>-0.01958970392751881</v>
+      </c>
+      <c r="E19">
+        <v>0.0843567997778894</v>
+      </c>
+      <c r="F19">
+        <v>-0.01268893453702211</v>
+      </c>
+      <c r="G19">
+        <v>0.1386361782123254</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
       <c r="A20" s="1" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="B20">
-        <v>-0.004670591821666906</v>
+        <v>0.01517548697495367</v>
       </c>
       <c r="C20">
-        <v>0.00957220545115438</v>
+        <v>-0.04209064378041445</v>
       </c>
       <c r="D20">
-        <v>-0.03286201685950726</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
+        <v>-0.01444963225249675</v>
+      </c>
+      <c r="E20">
+        <v>0.0390142137955526</v>
+      </c>
+      <c r="F20">
+        <v>0.01647158959513656</v>
+      </c>
+      <c r="G20">
+        <v>0.111462252533941</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
       <c r="A21" s="1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B21">
-        <v>-0.01204665504138227</v>
+        <v>0.01108466203523624</v>
       </c>
       <c r="C21">
-        <v>0.007168865405430268</v>
+        <v>-0.03825078605550566</v>
       </c>
       <c r="D21">
-        <v>-0.01874727932104321</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
+        <v>-0.01949603283527483</v>
+      </c>
+      <c r="E21">
+        <v>0.05317339449680096</v>
+      </c>
+      <c r="F21">
+        <v>0.004659601210940379</v>
+      </c>
+      <c r="G21">
+        <v>0.1390271692727124</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
       <c r="A22" s="1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="B22">
-        <v>0</v>
+        <v>-0.002014526473606225</v>
       </c>
       <c r="C22">
-        <v>0</v>
+        <v>-7.196675595580931e-06</v>
       </c>
       <c r="D22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
+        <v>-0.0007677052627707896</v>
+      </c>
+      <c r="E22">
+        <v>0.006076376866606163</v>
+      </c>
+      <c r="F22">
+        <v>-0.002702741218234033</v>
+      </c>
+      <c r="G22">
+        <v>0.007227076823201043</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
       <c r="A23" s="1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="B23">
-        <v>0</v>
+        <v>-0.002010949830035572</v>
       </c>
       <c r="C23">
-        <v>0</v>
+        <v>-7.91685840741153e-06</v>
       </c>
       <c r="D23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
+        <v>-0.0007632754337371417</v>
+      </c>
+      <c r="E23">
+        <v>0.006035764790386143</v>
+      </c>
+      <c r="F23">
+        <v>-0.002671957421100203</v>
+      </c>
+      <c r="G23">
+        <v>0.007108945227722852</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
       <c r="A24" s="1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="B24">
-        <v>0.001240416144697123</v>
+        <v>0.02764584277970659</v>
       </c>
       <c r="C24">
-        <v>0.007154947116496471</v>
+        <v>-0.05012755190568235</v>
       </c>
       <c r="D24">
-        <v>-0.04333515934181904</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
+        <v>-0.007323421811381826</v>
+      </c>
+      <c r="E24">
+        <v>0.01390580464153476</v>
+      </c>
+      <c r="F24">
+        <v>-0.00966191246909763</v>
+      </c>
+      <c r="G24">
+        <v>0.09082353240849413</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
       <c r="A25" s="1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B25">
-        <v>-0.01538501229520075</v>
+        <v>0.04143596104302823</v>
       </c>
       <c r="C25">
-        <v>0.002081506069781926</v>
+        <v>-0.0577751117696272</v>
       </c>
       <c r="D25">
-        <v>-0.05775868103887238</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
+        <v>-0.01134354865749581</v>
+      </c>
+      <c r="E25">
+        <v>0.005722473300714193</v>
+      </c>
+      <c r="F25">
+        <v>-0.003818283972101216</v>
+      </c>
+      <c r="G25">
+        <v>0.09859767266348057</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
       <c r="A26" s="1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B26">
-        <v>-0.01234808451234987</v>
+        <v>0.01366555269428634</v>
       </c>
       <c r="C26">
-        <v>0.01789223481949146</v>
+        <v>-0.01263779158870143</v>
       </c>
       <c r="D26">
-        <v>8.89641993124766e-05</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4">
+        <v>-0.02422805372908689</v>
+      </c>
+      <c r="E26">
+        <v>0.01038257377851836</v>
+      </c>
+      <c r="F26">
+        <v>0.007353727351255736</v>
+      </c>
+      <c r="G26">
+        <v>0.0833258210585776</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
       <c r="A27" s="1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1069,108 +1312,180 @@
       <c r="D27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:4">
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7">
       <c r="A28" s="1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="B28">
-        <v>-0.1946556296422535</v>
+        <v>0.1288284962786922</v>
       </c>
       <c r="C28">
-        <v>-0.124566756527372</v>
+        <v>0.2415001719809659</v>
       </c>
       <c r="D28">
-        <v>0.1386133438065395</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4">
+        <v>0.006645665220803086</v>
+      </c>
+      <c r="E28">
+        <v>0.008450498599177767</v>
+      </c>
+      <c r="F28">
+        <v>0.01797342743245337</v>
+      </c>
+      <c r="G28">
+        <v>0.04878077403131736</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
       <c r="A29" s="1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="B29">
-        <v>-0.008982181308889234</v>
+        <v>0.008686791358487603</v>
       </c>
       <c r="C29">
-        <v>0.001592222434639941</v>
+        <v>-0.02296336643198353</v>
       </c>
       <c r="D29">
-        <v>-0.01626683255486583</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4">
+        <v>-0.009374524032121228</v>
+      </c>
+      <c r="E29">
+        <v>0.005730635901201427</v>
+      </c>
+      <c r="F29">
+        <v>0.01464222717854139</v>
+      </c>
+      <c r="G29">
+        <v>0.09925791357390014</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7">
       <c r="A30" s="1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B30">
-        <v>-0.0112081892943728</v>
+        <v>0.03987935286812222</v>
       </c>
       <c r="C30">
-        <v>0.02148243861310164</v>
+        <v>-0.06861672369827321</v>
       </c>
       <c r="D30">
-        <v>-0.09644970444116503</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4">
+        <v>-0.02928668359428773</v>
+      </c>
+      <c r="E30">
+        <v>0.06503969495881753</v>
+      </c>
+      <c r="F30">
+        <v>-0.03854673379812543</v>
+      </c>
+      <c r="G30">
+        <v>0.1347128052528681</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7">
       <c r="A31" s="1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="B31">
-        <v>-0.02493939212435258</v>
+        <v>0.05268524426008366</v>
       </c>
       <c r="C31">
-        <v>-0.01124348355115099</v>
+        <v>-0.0397419883691205</v>
       </c>
       <c r="D31">
-        <v>-0.03277360027670113</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4">
+        <v>-0.00389008028282804</v>
+      </c>
+      <c r="E31">
+        <v>-0.00107947362428442</v>
+      </c>
+      <c r="F31">
+        <v>0.03809315941357474</v>
+      </c>
+      <c r="G31">
+        <v>0.0988374284226595</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7">
       <c r="A32" s="1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="B32">
-        <v>-0.0004135582937894842</v>
+        <v>0.002476193740729239</v>
       </c>
       <c r="C32">
-        <v>-0.01028314262836426</v>
+        <v>-0.02134247420834306</v>
       </c>
       <c r="D32">
-        <v>0.004089084641406632</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4">
+        <v>0.002756637693987434</v>
+      </c>
+      <c r="E32">
+        <v>0.0395885605230783</v>
+      </c>
+      <c r="F32">
+        <v>-0.03647045976574573</v>
+      </c>
+      <c r="G32">
+        <v>0.0871911176669317</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7">
       <c r="A33" s="1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="B33">
-        <v>-0.009683495971999636</v>
+        <v>0.02758906212907144</v>
       </c>
       <c r="C33">
-        <v>0.006703323265180724</v>
+        <v>-0.05111000984338858</v>
       </c>
       <c r="D33">
-        <v>-0.04140736610298299</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4">
+        <v>-0.0162590517884067</v>
+      </c>
+      <c r="E33">
+        <v>0.04796492582559643</v>
+      </c>
+      <c r="F33">
+        <v>-0.01262385614326513</v>
+      </c>
+      <c r="G33">
+        <v>0.1627001495676044</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7">
       <c r="A34" s="1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B34">
-        <v>-0.008178027729576706</v>
+        <v>0.03890976344121327</v>
       </c>
       <c r="C34">
-        <v>-0.01234549443788431</v>
+        <v>-0.05985123869282655</v>
       </c>
       <c r="D34">
-        <v>-0.05561049262210054</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4">
+        <v>0.004151651126678976</v>
+      </c>
+      <c r="E34">
+        <v>0.01137158251926655</v>
+      </c>
+      <c r="F34">
+        <v>-0.02057103996066986</v>
+      </c>
+      <c r="G34">
+        <v>0.09402849484362892</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7">
       <c r="A35" s="1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="B35">
         <v>0</v>
@@ -1181,24 +1496,42 @@
       <c r="D35">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:4">
+      <c r="E35">
+        <v>0</v>
+      </c>
+      <c r="F35">
+        <v>0</v>
+      </c>
+      <c r="G35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7">
       <c r="A36" s="1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="B36">
-        <v>-0.0147309598520946</v>
+        <v>0.01577097506118673</v>
       </c>
       <c r="C36">
-        <v>0.002622371972985302</v>
+        <v>-0.01047225094050655</v>
       </c>
       <c r="D36">
-        <v>-0.004702872703139448</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4">
+        <v>-0.01281956100640342</v>
+      </c>
+      <c r="E36">
+        <v>0.01052403646604256</v>
+      </c>
+      <c r="F36">
+        <v>0.0072125608781428</v>
+      </c>
+      <c r="G36">
+        <v>0.09297858404668163</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7">
       <c r="A37" s="1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1209,108 +1542,180 @@
       <c r="D37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:4">
+      <c r="E37">
+        <v>0</v>
+      </c>
+      <c r="F37">
+        <v>0</v>
+      </c>
+      <c r="G37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7">
       <c r="A38" s="1" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="B38">
-        <v>-0.01602338775012525</v>
+        <v>0.03072944987672082</v>
       </c>
       <c r="C38">
-        <v>-0.01994624095350343</v>
+        <v>-0.03081858880920194</v>
       </c>
       <c r="D38">
-        <v>-0.04141232027695933</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4">
+        <v>0.007466678735737874</v>
+      </c>
+      <c r="E38">
+        <v>0.007154129516570912</v>
+      </c>
+      <c r="F38">
+        <v>0.01768846550832404</v>
+      </c>
+      <c r="G38">
+        <v>0.08696762350314292</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7">
       <c r="A39" s="1" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="B39">
-        <v>0.01103516168425411</v>
+        <v>0.03579354121034941</v>
       </c>
       <c r="C39">
-        <v>0.01816490050478668</v>
+        <v>-0.0794876972070139</v>
       </c>
       <c r="D39">
-        <v>-0.0984907403275295</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4">
+        <v>-0.01186341520022038</v>
+      </c>
+      <c r="E39">
+        <v>0.03161601824391029</v>
+      </c>
+      <c r="F39">
+        <v>-0.01995748469976269</v>
+      </c>
+      <c r="G39">
+        <v>0.08949121863569932</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7">
       <c r="A40" s="1" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="B40">
-        <v>-0.01527820744814737</v>
+        <v>0.01333050607220751</v>
       </c>
       <c r="C40">
-        <v>0.002366399366011184</v>
+        <v>-0.03837884573630533</v>
       </c>
       <c r="D40">
-        <v>-0.02898352200360304</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4">
+        <v>-0.01483575016742467</v>
+      </c>
+      <c r="E40">
+        <v>0.03247800599767313</v>
+      </c>
+      <c r="F40">
+        <v>0.01220925063934677</v>
+      </c>
+      <c r="G40">
+        <v>0.1238671525321357</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7">
       <c r="A41" s="1" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="B41">
-        <v>-0.01498053558627126</v>
+        <v>0.02024524034972193</v>
       </c>
       <c r="C41">
-        <v>-0.00652263892844731</v>
+        <v>-0.004500079992912188</v>
       </c>
       <c r="D41">
-        <v>0.009913130420374262</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4">
+        <v>-0.004677533486360381</v>
+      </c>
+      <c r="E41">
+        <v>0.007514967361754729</v>
+      </c>
+      <c r="F41">
+        <v>0.01495695587984098</v>
+      </c>
+      <c r="G41">
+        <v>0.08564028382443138</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7">
       <c r="A42" s="1" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="B42">
-        <v>-0.03718861983866167</v>
+        <v>0.007608294257190461</v>
       </c>
       <c r="C42">
-        <v>0.08600156034561414</v>
+        <v>-0.03022260124214871</v>
       </c>
       <c r="D42">
-        <v>-0.1181095940854167</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4">
+        <v>-0.08771549893982275</v>
+      </c>
+      <c r="E42">
+        <v>0.01037518789204186</v>
+      </c>
+      <c r="F42">
+        <v>0.04143971670485116</v>
+      </c>
+      <c r="G42">
+        <v>-0.02767865478703072</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7">
       <c r="A43" s="1" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="B43">
-        <v>-0.01496862941141755</v>
+        <v>0.03463940472130689</v>
       </c>
       <c r="C43">
-        <v>-0.005586993523694236</v>
+        <v>-0.01957214250365719</v>
       </c>
       <c r="D43">
-        <v>0.01040374539572091</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4">
+        <v>-0.006160619884128363</v>
+      </c>
+      <c r="E43">
+        <v>0.0220252526812275</v>
+      </c>
+      <c r="F43">
+        <v>0.007342274281197238</v>
+      </c>
+      <c r="G43">
+        <v>0.1198259432120705</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7">
       <c r="A44" s="1" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="B44">
-        <v>0.0001494508528486907</v>
+        <v>0.01346812799100554</v>
       </c>
       <c r="C44">
-        <v>0.003186100699861772</v>
+        <v>-0.05847651456199358</v>
       </c>
       <c r="D44">
-        <v>-0.04665895056134304</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4">
+        <v>-0.006929476580019028</v>
+      </c>
+      <c r="E44">
+        <v>0.02567404168395757</v>
+      </c>
+      <c r="F44">
+        <v>0.007788568431857265</v>
+      </c>
+      <c r="G44">
+        <v>0.110078428232832</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7">
       <c r="A45" s="1" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1321,52 +1726,88 @@
       <c r="D45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:4">
+      <c r="E45">
+        <v>0</v>
+      </c>
+      <c r="F45">
+        <v>0</v>
+      </c>
+      <c r="G45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7">
       <c r="A46" s="1" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="B46">
-        <v>-0.006985425799063752</v>
+        <v>0.008840725229787422</v>
       </c>
       <c r="C46">
-        <v>0.006840066761557007</v>
+        <v>-0.01513568818729778</v>
       </c>
       <c r="D46">
-        <v>0.003711272455276666</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4">
+        <v>-0.01265320371311271</v>
+      </c>
+      <c r="E46">
+        <v>0.0009616160675123453</v>
+      </c>
+      <c r="F46">
+        <v>0.01796303203373372</v>
+      </c>
+      <c r="G46">
+        <v>0.1075894913117452</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7">
       <c r="A47" s="1" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B47">
-        <v>-0.02269591890176595</v>
+        <v>0.07750009162825357</v>
       </c>
       <c r="C47">
-        <v>-0.0174823616259484</v>
+        <v>-0.07018141248173138</v>
       </c>
       <c r="D47">
-        <v>-0.07683922699705607</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4">
+        <v>0.004946899895162086</v>
+      </c>
+      <c r="E47">
+        <v>-0.008406074308982849</v>
+      </c>
+      <c r="F47">
+        <v>0.05229058780712506</v>
+      </c>
+      <c r="G47">
+        <v>0.08387914406817629</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7">
       <c r="A48" s="1" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="B48">
-        <v>-0.008748412638704999</v>
+        <v>0.01834084100708143</v>
       </c>
       <c r="C48">
-        <v>-0.004789022824299178</v>
+        <v>-0.01352159672787215</v>
       </c>
       <c r="D48">
-        <v>-0.01546346133563481</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4">
+        <v>-0.002479615187804118</v>
+      </c>
+      <c r="E48">
+        <v>0.00655659834375647</v>
+      </c>
+      <c r="F48">
+        <v>0.01889319048811298</v>
+      </c>
+      <c r="G48">
+        <v>0.09890102833109381</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7">
       <c r="A49" s="1" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -1377,38 +1818,65 @@
       <c r="D49">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:4">
+      <c r="E49">
+        <v>0</v>
+      </c>
+      <c r="F49">
+        <v>0</v>
+      </c>
+      <c r="G49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7">
       <c r="A50" s="1" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="B50">
-        <v>-0.03180262375950042</v>
+        <v>0.07446805528710694</v>
       </c>
       <c r="C50">
-        <v>-0.02177861909476802</v>
+        <v>-0.07349098258331625</v>
       </c>
       <c r="D50">
-        <v>-0.07037943558609017</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4">
+        <v>0.002072443664269954</v>
+      </c>
+      <c r="E50">
+        <v>-0.004685115645893367</v>
+      </c>
+      <c r="F50">
+        <v>0.05283935368655868</v>
+      </c>
+      <c r="G50">
+        <v>0.09379748039159659</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7">
       <c r="A51" s="1" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="B51">
-        <v>-0.00814880877148705</v>
+        <v>0.01410523044612363</v>
       </c>
       <c r="C51">
-        <v>0.001295307030535041</v>
+        <v>-0.03699220746304883</v>
       </c>
       <c r="D51">
-        <v>-0.02647944602634734</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4">
+        <v>-0.01061227758296365</v>
+      </c>
+      <c r="E51">
+        <v>0.03073969482160849</v>
+      </c>
+      <c r="F51">
+        <v>-0.01784463111291647</v>
+      </c>
+      <c r="G51">
+        <v>0.124995322330238</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7">
       <c r="A52" s="1" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1419,136 +1887,226 @@
       <c r="D52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:4">
+      <c r="E52">
+        <v>0</v>
+      </c>
+      <c r="F52">
+        <v>0</v>
+      </c>
+      <c r="G52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7">
       <c r="A53" s="1" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="B53">
-        <v>-0.03822604306250615</v>
+        <v>0.08134721295635024</v>
       </c>
       <c r="C53">
-        <v>-0.02575376516113459</v>
+        <v>-0.08579457938464699</v>
       </c>
       <c r="D53">
-        <v>-0.1261669575220752</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4">
+        <v>0.003366546049596154</v>
+      </c>
+      <c r="E53">
+        <v>-0.0273980091774204</v>
+      </c>
+      <c r="F53">
+        <v>0.06029814998049803</v>
+      </c>
+      <c r="G53">
+        <v>0.09428665117133164</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7">
       <c r="A54" s="1" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="B54">
-        <v>-0.01709417192943648</v>
+        <v>0.03125124851643859</v>
       </c>
       <c r="C54">
-        <v>-0.01550102888600452</v>
+        <v>-0.01950200208930749</v>
       </c>
       <c r="D54">
-        <v>0.000393813839645008</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4">
+        <v>0.001002706071536815</v>
+      </c>
+      <c r="E54">
+        <v>0.02036530557286617</v>
+      </c>
+      <c r="F54">
+        <v>0.005915438278214434</v>
+      </c>
+      <c r="G54">
+        <v>0.1079247097075165</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7">
       <c r="A55" s="1" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="B55">
-        <v>-0.02099582849867238</v>
+        <v>0.0716887489380429</v>
       </c>
       <c r="C55">
-        <v>-0.01530770558962191</v>
+        <v>-0.06829389029859162</v>
       </c>
       <c r="D55">
-        <v>-0.1018244218803967</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4">
+        <v>0.004983311296701306</v>
+      </c>
+      <c r="E55">
+        <v>-0.0249946653823915</v>
+      </c>
+      <c r="F55">
+        <v>0.06070015219281632</v>
+      </c>
+      <c r="G55">
+        <v>0.07013100866900812</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7">
       <c r="A56" s="1" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="B56">
-        <v>-0.04405916367632923</v>
+        <v>0.1358209830971431</v>
       </c>
       <c r="C56">
-        <v>-0.034190022273169</v>
+        <v>-0.1087185477625027</v>
       </c>
       <c r="D56">
-        <v>-0.1607073252651364</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4">
+        <v>0.01256940120086257</v>
+      </c>
+      <c r="E56">
+        <v>-0.03788259752040036</v>
+      </c>
+      <c r="F56">
+        <v>0.07731097838931658</v>
+      </c>
+      <c r="G56">
+        <v>0.04419623735893536</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7">
       <c r="A57" s="1" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B57">
-        <v>-0.0198943497567484</v>
+        <v>0.00584233392585677</v>
       </c>
       <c r="C57">
-        <v>0.01335566913347999</v>
+        <v>-0.005954396921084256</v>
       </c>
       <c r="D57">
-        <v>-0.02935076243877629</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4">
+        <v>-0.0227012526497519</v>
+      </c>
+      <c r="E57">
+        <v>0.02495322390388513</v>
+      </c>
+      <c r="F57">
+        <v>-0.004468288235360569</v>
+      </c>
+      <c r="G57">
+        <v>0.02258285404125834</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7">
       <c r="A58" s="1" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="B58">
-        <v>-0.02274397642459516</v>
+        <v>0.05091158052723017</v>
       </c>
       <c r="C58">
-        <v>-0.01415965506697748</v>
+        <v>-0.04352056418472041</v>
       </c>
       <c r="D58">
-        <v>-0.1132600289420209</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4">
+        <v>-0.02232573920976991</v>
+      </c>
+      <c r="E58">
+        <v>0.886479251169475</v>
+      </c>
+      <c r="F58">
+        <v>0.3393557906994196</v>
+      </c>
+      <c r="G58">
+        <v>-0.2388571031712988</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7">
       <c r="A59" s="1" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="B59">
-        <v>-0.2175182340610355</v>
+        <v>0.1607364196142059</v>
       </c>
       <c r="C59">
-        <v>-0.1457583339019223</v>
+        <v>0.2052813499702479</v>
       </c>
       <c r="D59">
-        <v>0.1129219658907001</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4">
+        <v>0.01138327521961865</v>
+      </c>
+      <c r="E59">
+        <v>0.02194452240002928</v>
+      </c>
+      <c r="F59">
+        <v>0.002717578483200529</v>
+      </c>
+      <c r="G59">
+        <v>0.04247987746246656</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7">
       <c r="A60" s="1" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="B60">
-        <v>-0.1868662506014136</v>
+        <v>0.2855970343715052</v>
       </c>
       <c r="C60">
-        <v>-0.1025301357657249</v>
+        <v>-0.1133323204086766</v>
       </c>
       <c r="D60">
-        <v>-0.1613695469406418</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4">
+        <v>-0.01268818132629805</v>
+      </c>
+      <c r="E60">
+        <v>0.02996637368574087</v>
+      </c>
+      <c r="F60">
+        <v>-0.3425156087316656</v>
+      </c>
+      <c r="G60">
+        <v>-0.1614726969919074</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7">
       <c r="A61" s="1" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="B61">
-        <v>-0.001824067810272265</v>
+        <v>0.03782387947307367</v>
       </c>
       <c r="C61">
-        <v>0.00269064391683442</v>
+        <v>-0.06639502336044777</v>
       </c>
       <c r="D61">
-        <v>-0.07618663608836157</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4">
+        <v>-0.005917029398589546</v>
+      </c>
+      <c r="E61">
+        <v>0.02659811453016332</v>
+      </c>
+      <c r="F61">
+        <v>-0.01266196002376065</v>
+      </c>
+      <c r="G61">
+        <v>0.09805341232501195</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7">
       <c r="A62" s="1" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="B62">
         <v>0</v>
@@ -1559,108 +2117,180 @@
       <c r="D62">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:4">
+      <c r="E62">
+        <v>0</v>
+      </c>
+      <c r="F62">
+        <v>0</v>
+      </c>
+      <c r="G62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7">
       <c r="A63" s="1" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="B63">
-        <v>-0.004991456699178404</v>
+        <v>0.01463071869520588</v>
       </c>
       <c r="C63">
-        <v>0.005265148096369091</v>
+        <v>-0.0305599725178953</v>
       </c>
       <c r="D63">
-        <v>-0.02499926974191409</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4">
+        <v>-0.008751076865498305</v>
+      </c>
+      <c r="E63">
+        <v>0.006541565264495606</v>
+      </c>
+      <c r="F63">
+        <v>0.0140276130541818</v>
+      </c>
+      <c r="G63">
+        <v>0.09493066426656495</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7">
       <c r="A64" s="1" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="B64">
-        <v>-0.02521084513113709</v>
+        <v>0.04879284960530561</v>
       </c>
       <c r="C64">
-        <v>-0.01070441534686045</v>
+        <v>-0.04801683905066746</v>
       </c>
       <c r="D64">
-        <v>-0.05656525674383966</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4">
+        <v>-0.006442962263781883</v>
+      </c>
+      <c r="E64">
+        <v>0.008983600669955454</v>
+      </c>
+      <c r="F64">
+        <v>-0.004346315488490019</v>
+      </c>
+      <c r="G64">
+        <v>0.09954658570596582</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7">
       <c r="A65" s="1" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="B65">
-        <v>-0.02998414063480622</v>
+        <v>0.074014324888879</v>
       </c>
       <c r="C65">
-        <v>0.0004737928061741128</v>
+        <v>-0.05856199761946269</v>
       </c>
       <c r="D65">
-        <v>-0.1128644821827752</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4">
+        <v>-0.01706731315555663</v>
+      </c>
+      <c r="E65">
+        <v>0.04469754606850405</v>
+      </c>
+      <c r="F65">
+        <v>-0.02598777193109902</v>
+      </c>
+      <c r="G65">
+        <v>0.04486351654822499</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7">
       <c r="A66" s="1" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="B66">
-        <v>0.008956736067506127</v>
+        <v>0.04928953738628785</v>
       </c>
       <c r="C66">
-        <v>0.01624316936476265</v>
+        <v>-0.1060899591875205</v>
       </c>
       <c r="D66">
-        <v>-0.1394629891487278</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4">
+        <v>-0.01199395296627094</v>
+      </c>
+      <c r="E66">
+        <v>0.04533472738735442</v>
+      </c>
+      <c r="F66">
+        <v>-0.03071664784308132</v>
+      </c>
+      <c r="G66">
+        <v>0.1047134388304213</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7">
       <c r="A67" s="1" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="B67">
-        <v>-0.03698569602034358</v>
+        <v>0.0538577941792094</v>
       </c>
       <c r="C67">
-        <v>-0.02989698267503577</v>
+        <v>-0.03475278201161244</v>
       </c>
       <c r="D67">
-        <v>-0.06166042457771351</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4">
+        <v>0.006033001421319214</v>
+      </c>
+      <c r="E67">
+        <v>-0.002844275175690924</v>
+      </c>
+      <c r="F67">
+        <v>0.0162850682506667</v>
+      </c>
+      <c r="G67">
+        <v>0.07449977274876637</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7">
       <c r="A68" s="1" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="B68">
-        <v>-0.2226618440351069</v>
+        <v>0.1591417337812733</v>
       </c>
       <c r="C68">
-        <v>-0.1258852171797029</v>
+        <v>0.2699931871074153</v>
       </c>
       <c r="D68">
-        <v>0.1736967565199887</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4">
+        <v>-0.005627203113464154</v>
+      </c>
+      <c r="E68">
+        <v>0.009666281686561667</v>
+      </c>
+      <c r="F68">
+        <v>0.03957499977336583</v>
+      </c>
+      <c r="G68">
+        <v>0.03126314106272628</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7">
       <c r="A69" s="1" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="B69">
-        <v>-0.03005930216095314</v>
+        <v>0.08094724278324208</v>
       </c>
       <c r="C69">
-        <v>-0.02715053046524177</v>
+        <v>-0.07214789299810448</v>
       </c>
       <c r="D69">
-        <v>-0.07940693867505953</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4">
+        <v>0.008941209123058588</v>
+      </c>
+      <c r="E69">
+        <v>-0.0217703485247742</v>
+      </c>
+      <c r="F69">
+        <v>0.03328962773078726</v>
+      </c>
+      <c r="G69">
+        <v>0.1009884074030305</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7">
       <c r="A70" s="1" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -1671,192 +2301,318 @@
       <c r="D70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:4">
+      <c r="E70">
+        <v>0</v>
+      </c>
+      <c r="F70">
+        <v>0</v>
+      </c>
+      <c r="G70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7">
       <c r="A71" s="1" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="B71">
-        <v>-0.1813576618837766</v>
+        <v>0.1431333006014206</v>
       </c>
       <c r="C71">
-        <v>-0.1101088527344905</v>
+        <v>0.2271861174733106</v>
       </c>
       <c r="D71">
-        <v>0.1177233938030819</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4">
+        <v>0.002655961187177803</v>
+      </c>
+      <c r="E71">
+        <v>0.03064953853522394</v>
+      </c>
+      <c r="F71">
+        <v>0.02782842316331349</v>
+      </c>
+      <c r="G71">
+        <v>0.07175468971916669</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7">
       <c r="A72" s="1" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="B72">
-        <v>-0.01388178191103458</v>
+        <v>0.08429495548391025</v>
       </c>
       <c r="C72">
-        <v>-0.01667361040807331</v>
+        <v>-0.06896510740035901</v>
       </c>
       <c r="D72">
-        <v>-0.105525989231667</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4">
+        <v>0.008285349005601749</v>
+      </c>
+      <c r="E72">
+        <v>-0.007052200420097393</v>
+      </c>
+      <c r="F72">
+        <v>-0.03307607062856668</v>
+      </c>
+      <c r="G72">
+        <v>0.08940702457264603</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7">
       <c r="A73" s="1" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="B73">
-        <v>-0.2327305470134224</v>
+        <v>0.3734812189379267</v>
       </c>
       <c r="C73">
-        <v>-0.1221221061811868</v>
+        <v>-0.1209911770150648</v>
       </c>
       <c r="D73">
-        <v>-0.2896504906344568</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4">
+        <v>-0.02264828814112409</v>
+      </c>
+      <c r="E73">
+        <v>0.1204849584868352</v>
+      </c>
+      <c r="F73">
+        <v>-0.5764285474192715</v>
+      </c>
+      <c r="G73">
+        <v>-0.2903707102695757</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7">
       <c r="A74" s="1" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="B74">
-        <v>-0.04520716894125279</v>
+        <v>0.1042761787586358</v>
       </c>
       <c r="C74">
-        <v>-0.03680438975899469</v>
+        <v>-0.1102119440838208</v>
       </c>
       <c r="D74">
-        <v>-0.1732552895295496</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4">
+        <v>0.009424449386152502</v>
+      </c>
+      <c r="E74">
+        <v>-0.01108965654038264</v>
+      </c>
+      <c r="F74">
+        <v>0.06672686730673769</v>
+      </c>
+      <c r="G74">
+        <v>0.08322276907198882</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7">
       <c r="A75" s="1" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="B75">
-        <v>-0.114679951349813</v>
+        <v>0.247035213072019</v>
       </c>
       <c r="C75">
-        <v>-0.08820858139239479</v>
+        <v>-0.1535241891224358</v>
       </c>
       <c r="D75">
-        <v>-0.3011795636720864</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4">
+        <v>0.03140522709498314</v>
+      </c>
+      <c r="E75">
+        <v>-0.07976304093655048</v>
+      </c>
+      <c r="F75">
+        <v>0.1592999216102093</v>
+      </c>
+      <c r="G75">
+        <v>-0.01879833454771628</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7">
       <c r="A76" s="1" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="B76">
-        <v>-0.05150166804489549</v>
+        <v>0.1170458469445519</v>
       </c>
       <c r="C76">
-        <v>-0.04706993514740253</v>
+        <v>-0.1099724686976257</v>
       </c>
       <c r="D76">
-        <v>-0.2018381091739567</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4">
+        <v>0.01761154048731765</v>
+      </c>
+      <c r="E76">
+        <v>-0.03043672617927731</v>
+      </c>
+      <c r="F76">
+        <v>0.0953512130577758</v>
+      </c>
+      <c r="G76">
+        <v>0.05879471688184247</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7">
       <c r="A77" s="1" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="B77">
-        <v>-0.01644752884255438</v>
+        <v>0.07032873103279751</v>
       </c>
       <c r="C77">
-        <v>0.000323881701545546</v>
+        <v>-0.06227984423182794</v>
       </c>
       <c r="D77">
-        <v>-0.08161901326102214</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4">
+        <v>-0.01044519449238035</v>
+      </c>
+      <c r="E77">
+        <v>0.05157608674682729</v>
+      </c>
+      <c r="F77">
+        <v>-0.008292620615265018</v>
+      </c>
+      <c r="G77">
+        <v>0.06424021929555232</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7">
       <c r="A78" s="1" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="B78">
-        <v>-0.008591241279960801</v>
+        <v>0.04155905830903808</v>
       </c>
       <c r="C78">
-        <v>-0.0009297538439709133</v>
+        <v>-0.04944880773682803</v>
       </c>
       <c r="D78">
-        <v>-0.06345714088484862</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4">
+        <v>-0.006124489083328803</v>
+      </c>
+      <c r="E78">
+        <v>0.03461425293384378</v>
+      </c>
+      <c r="F78">
+        <v>-0.03441387484341079</v>
+      </c>
+      <c r="G78">
+        <v>0.1035491674362222</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7">
       <c r="A79" s="1" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="B79">
-        <v>0</v>
+        <v>-0.0003589262701731282</v>
       </c>
       <c r="C79">
-        <v>0</v>
+        <v>-0.0005375000055607699</v>
       </c>
       <c r="D79">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4">
+        <v>-0.0002026161281766442</v>
+      </c>
+      <c r="E79">
+        <v>0.002462689416798874</v>
+      </c>
+      <c r="F79">
+        <v>-0.001455409861199143</v>
+      </c>
+      <c r="G79">
+        <v>0.0006976736627099054</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7">
       <c r="A80" s="1" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="B80">
-        <v>-0.03207527759473724</v>
+        <v>0.04272212171406629</v>
       </c>
       <c r="C80">
-        <v>-0.007878098349700191</v>
+        <v>-0.05248395147350742</v>
       </c>
       <c r="D80">
-        <v>-0.07674211738562449</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4">
+        <v>-0.01329204740529396</v>
+      </c>
+      <c r="E80">
+        <v>0.02702758027463734</v>
+      </c>
+      <c r="F80">
+        <v>-0.007851330926642858</v>
+      </c>
+      <c r="G80">
+        <v>0.05164184536859027</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7">
       <c r="A81" s="1" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="B81">
-        <v>-0.06316227218026388</v>
+        <v>0.136674195067497</v>
       </c>
       <c r="C81">
-        <v>-0.04797945827609854</v>
+        <v>-0.09869296726754452</v>
       </c>
       <c r="D81">
-        <v>-0.1692018386404918</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4">
+        <v>0.01497230268761191</v>
+      </c>
+      <c r="E81">
+        <v>-0.04307439208088052</v>
+      </c>
+      <c r="F81">
+        <v>0.122441786771408</v>
+      </c>
+      <c r="G81">
+        <v>0.02071356187224641</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7">
       <c r="A82" s="1" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="B82">
-        <v>0</v>
+        <v>0.1381555048614422</v>
       </c>
       <c r="C82">
-        <v>0</v>
+        <v>-0.0844919168735279</v>
       </c>
       <c r="D82">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4">
+        <v>0.01050021231595596</v>
+      </c>
+      <c r="E82">
+        <v>-0.1117219676092119</v>
+      </c>
+      <c r="F82">
+        <v>0.05538164142733729</v>
+      </c>
+      <c r="G82">
+        <v>0.06033804878576441</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7">
       <c r="A83" s="1" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="B83">
-        <v>-0.01471853765124549</v>
+        <v>0.03575631004896769</v>
       </c>
       <c r="C83">
-        <v>-0.005086768267760557</v>
+        <v>-0.02913146810685668</v>
       </c>
       <c r="D83">
-        <v>-0.02106268091790963</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4">
+        <v>-0.006070174503725294</v>
+      </c>
+      <c r="E83">
+        <v>0.0326836644946338</v>
+      </c>
+      <c r="F83">
+        <v>-0.02763218806218384</v>
+      </c>
+      <c r="G83">
+        <v>0.06234322872316075</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7">
       <c r="A84" s="1" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="B84">
         <v>0</v>
@@ -1867,164 +2623,272 @@
       <c r="D84">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="1:4">
+      <c r="E84">
+        <v>0</v>
+      </c>
+      <c r="F84">
+        <v>0</v>
+      </c>
+      <c r="G84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7">
       <c r="A85" s="1" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="B85">
-        <v>-0.09611285187156665</v>
+        <v>0.2091377588460103</v>
       </c>
       <c r="C85">
-        <v>-0.06151074522257435</v>
+        <v>-0.1491724643830529</v>
       </c>
       <c r="D85">
-        <v>-0.2657032843147378</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4">
+        <v>0.0170233602500633</v>
+      </c>
+      <c r="E85">
+        <v>-0.1095219866849091</v>
+      </c>
+      <c r="F85">
+        <v>0.1025459597854364</v>
+      </c>
+      <c r="G85">
+        <v>-0.06111949651317341</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7">
       <c r="A86" s="1" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="B86">
-        <v>-0.0151387715593001</v>
+        <v>0.01357136492024441</v>
       </c>
       <c r="C86">
-        <v>-0.003795249743742018</v>
+        <v>-0.02545568384697924</v>
       </c>
       <c r="D86">
-        <v>-0.03781731464915252</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4">
+        <v>-0.0116341205069368</v>
+      </c>
+      <c r="E86">
+        <v>0.05386807971918277</v>
+      </c>
+      <c r="F86">
+        <v>-0.01305883624667639</v>
+      </c>
+      <c r="G86">
+        <v>0.1928396004941071</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7">
       <c r="A87" s="1" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="B87">
-        <v>0.002833228736446668</v>
+        <v>0.02176659760302676</v>
       </c>
       <c r="C87">
-        <v>0.01170394418994442</v>
+        <v>-0.01946371294772465</v>
       </c>
       <c r="D87">
-        <v>-0.02880576454605611</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4">
+        <v>-0.01216903735562858</v>
+      </c>
+      <c r="E87">
+        <v>0.09737087857501614</v>
+      </c>
+      <c r="F87">
+        <v>0.001561246443187824</v>
+      </c>
+      <c r="G87">
+        <v>0.1203095281570942</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7">
       <c r="A88" s="1" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="B88">
-        <v>-0.04883603098699456</v>
+        <v>0.09241411400481434</v>
       </c>
       <c r="C88">
-        <v>-0.005051590578351159</v>
+        <v>-0.07001316888476029</v>
       </c>
       <c r="D88">
-        <v>-0.04243058498001705</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4">
+        <v>-0.02206773569913806</v>
+      </c>
+      <c r="E88">
+        <v>-0.004711204826223179</v>
+      </c>
+      <c r="F88">
+        <v>0.01977657915064741</v>
+      </c>
+      <c r="G88">
+        <v>0.1020397621744572</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7">
       <c r="A89" s="1" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="B89">
-        <v>-0.3396566195034077</v>
+        <v>0.2362602655450025</v>
       </c>
       <c r="C89">
-        <v>-0.2033956044973941</v>
+        <v>0.3661611959247869</v>
       </c>
       <c r="D89">
-        <v>0.2072135810873175</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4">
+        <v>8.748164000440478e-05</v>
+      </c>
+      <c r="E89">
+        <v>-0.01955340995706095</v>
+      </c>
+      <c r="F89">
+        <v>0.02449201598942823</v>
+      </c>
+      <c r="G89">
+        <v>0.06825398600790614</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7">
       <c r="A90" s="1" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="B90">
-        <v>-0.2806472026112178</v>
+        <v>0.2104329034491723</v>
       </c>
       <c r="C90">
-        <v>-0.171884029944728</v>
+        <v>0.3151803024062214</v>
       </c>
       <c r="D90">
-        <v>0.1892694122284913</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4">
+        <v>0.004536171295406555</v>
+      </c>
+      <c r="E90">
+        <v>-0.001179823126405281</v>
+      </c>
+      <c r="F90">
+        <v>0.04534295629888394</v>
+      </c>
+      <c r="G90">
+        <v>0.0430512315984377</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7">
       <c r="A91" s="1" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="B91">
-        <v>-0.09579473323207634</v>
+        <v>0.1850438555567845</v>
       </c>
       <c r="C91">
-        <v>-0.076293883667372</v>
+        <v>-0.1417036748745859</v>
       </c>
       <c r="D91">
-        <v>-0.2238242779820133</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4">
+        <v>0.02218985108699324</v>
+      </c>
+      <c r="E91">
+        <v>-0.07232982818329499</v>
+      </c>
+      <c r="F91">
+        <v>0.1326352717297992</v>
+      </c>
+      <c r="G91">
+        <v>0.03470973200433342</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7">
       <c r="A92" s="1" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="B92">
-        <v>-0.2339331128195227</v>
+        <v>0.2018219097379263</v>
       </c>
       <c r="C92">
-        <v>-0.1791770480218232</v>
+        <v>0.2555704733733828</v>
       </c>
       <c r="D92">
-        <v>0.09181998165190582</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4">
+        <v>0.03808935397364101</v>
+      </c>
+      <c r="E92">
+        <v>0.03481622593342346</v>
+      </c>
+      <c r="F92">
+        <v>0.05848601938495253</v>
+      </c>
+      <c r="G92">
+        <v>0.1118838589674283</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7">
       <c r="A93" s="1" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="B93">
-        <v>-0.2970249489481473</v>
+        <v>0.234618556935252</v>
       </c>
       <c r="C93">
-        <v>-0.188343216690014</v>
+        <v>0.3092694958070301</v>
       </c>
       <c r="D93">
-        <v>0.1541525098173973</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4">
+        <v>0.01113649042781649</v>
+      </c>
+      <c r="E93">
+        <v>0.001623185240216576</v>
+      </c>
+      <c r="F93">
+        <v>0.04139872695289903</v>
+      </c>
+      <c r="G93">
+        <v>0.05854523119456533</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7">
       <c r="A94" s="1" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="B94">
-        <v>-0.1468094988749636</v>
+        <v>0.3216735162275087</v>
       </c>
       <c r="C94">
-        <v>-0.08567598007716377</v>
+        <v>-0.1845671170875276</v>
       </c>
       <c r="D94">
-        <v>-0.2881720297855682</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4">
+        <v>0.02027220116616082</v>
+      </c>
+      <c r="E94">
+        <v>-0.2522754000655635</v>
+      </c>
+      <c r="F94">
+        <v>0.4662547762289547</v>
+      </c>
+      <c r="G94">
+        <v>-0.4070844668590007</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7">
       <c r="A95" s="1" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="B95">
-        <v>-0.003097307674652275</v>
+        <v>0.09893016133354671</v>
       </c>
       <c r="C95">
-        <v>-0.01072392662311245</v>
+        <v>-0.0897406945274082</v>
       </c>
       <c r="D95">
-        <v>-0.1223960568222168</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4">
+        <v>0.009777004364196047</v>
+      </c>
+      <c r="E95">
+        <v>0.09068196300443623</v>
+      </c>
+      <c r="F95">
+        <v>-0.1673365359675395</v>
+      </c>
+      <c r="G95">
+        <v>-0.001008529552409981</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7">
       <c r="A96" s="1" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2035,10 +2899,19 @@
       <c r="D96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:4">
+      <c r="E96">
+        <v>0</v>
+      </c>
+      <c r="F96">
+        <v>0</v>
+      </c>
+      <c r="G96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7">
       <c r="A97" s="1" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="B97">
         <v>0</v>
@@ -2049,24 +2922,42 @@
       <c r="D97">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="1:4">
+      <c r="E97">
+        <v>0</v>
+      </c>
+      <c r="F97">
+        <v>0</v>
+      </c>
+      <c r="G97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7">
       <c r="A98" s="1" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="B98">
-        <v>-0.1348817723897363</v>
+        <v>0.1930266380508842</v>
       </c>
       <c r="C98">
-        <v>-0.1017277579545973</v>
+        <v>-0.04512583340167354</v>
       </c>
       <c r="D98">
-        <v>-0.1279666777564154</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4">
+        <v>0.01250383113876832</v>
+      </c>
+      <c r="E98">
+        <v>0.09128790024115943</v>
+      </c>
+      <c r="F98">
+        <v>-0.2341098473256225</v>
+      </c>
+      <c r="G98">
+        <v>-0.02667536948753257</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7">
       <c r="A99" s="1" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="B99">
         <v>0</v>
@@ -2077,10 +2968,19 @@
       <c r="D99">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="1:4">
+      <c r="E99">
+        <v>0</v>
+      </c>
+      <c r="F99">
+        <v>0</v>
+      </c>
+      <c r="G99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7">
       <c r="A100" s="1" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -2091,38 +2991,65 @@
       <c r="D100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:4">
+      <c r="E100">
+        <v>0</v>
+      </c>
+      <c r="F100">
+        <v>0</v>
+      </c>
+      <c r="G100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7">
       <c r="A101" s="1" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="B101">
-        <v>-0.008713878091099974</v>
+        <v>0.008468998703634475</v>
       </c>
       <c r="C101">
-        <v>0.001582531693511943</v>
+        <v>-0.02298066583175368</v>
       </c>
       <c r="D101">
-        <v>-0.0162043463777188</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4">
+        <v>-0.009215107719688842</v>
+      </c>
+      <c r="E101">
+        <v>0.00548295849194847</v>
+      </c>
+      <c r="F101">
+        <v>0.0155666069645689</v>
+      </c>
+      <c r="G101">
+        <v>0.09827613063049544</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7">
       <c r="A102" s="1" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="B102">
-        <v>-0.05728230839412878</v>
+        <v>0.1147477492651255</v>
       </c>
       <c r="C102">
-        <v>-0.02854499705422562</v>
+        <v>-0.08376610544059185</v>
       </c>
       <c r="D102">
-        <v>-0.137174145873492</v>
-      </c>
-    </row>
-    <row r="103" spans="1:4">
+        <v>-0.0009004129276327394</v>
+      </c>
+      <c r="E102">
+        <v>-0.03764544834183403</v>
+      </c>
+      <c r="F102">
+        <v>0.03848653040909511</v>
+      </c>
+      <c r="G102">
+        <v>0.0138271930660863</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7">
       <c r="A103" s="1" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -2133,19 +3060,37 @@
       <c r="D103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:4">
+      <c r="E103">
+        <v>0</v>
+      </c>
+      <c r="F103">
+        <v>0</v>
+      </c>
+      <c r="G103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7">
       <c r="A104" s="1" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="B104">
-        <v>-0.5296428987372864</v>
+        <v>0.02118409105225691</v>
       </c>
       <c r="C104">
-        <v>0.8376795014575816</v>
+        <v>0.02951554069710447</v>
       </c>
       <c r="D104">
-        <v>0.02353827296524116</v>
+        <v>-0.9877920539286181</v>
+      </c>
+      <c r="E104">
+        <v>-0.05473526523155456</v>
+      </c>
+      <c r="F104">
+        <v>0.03286582411608235</v>
+      </c>
+      <c r="G104">
+        <v>-0.03966168070508966</v>
       </c>
     </row>
   </sheetData>
